--- a/data/trans_dic/iP30A1_2023-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/iP30A1_2023-Habitat-trans_dic.xlsx
@@ -546,7 +546,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>Menos de 2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>92,54%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>93,66%</t>
+          <t>96,09%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>93,03%</t>
+          <t>97,72%</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>89,02; 95,16</t>
+          <t>89,47; 100</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>90,03; 96,42</t>
+          <t>81,25; 100,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>90,44; 94,94</t>
+          <t>90,2; 100,0</t>
         </is>
       </c>
     </row>
@@ -646,7 +646,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>10/50</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>87,0%</t>
+          <t>92,54%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>87,08%</t>
+          <t>93,66%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>87,04%</t>
+          <t>93,03%</t>
         </is>
       </c>
     </row>
@@ -679,24 +679,24 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>81,53; 91,31</t>
+          <t>89,02; 95,16</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>82,49; 91,13</t>
+          <t>90,03; 96,42</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>83,54; 89,81</t>
+          <t>90,44; 94,94</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>mas de 50</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>84,27%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>96,09%</t>
+          <t>86,13%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>97,72%</t>
+          <t>85,19%</t>
         </is>
       </c>
     </row>
@@ -729,24 +729,24 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>89,47; 100</t>
+          <t>78,48; 88,65</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>81,25; 100,0</t>
+          <t>81,27; 90,46</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>90,2; 100,0</t>
+          <t>81,64; 88,49</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -756,17 +756,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>84,27%</t>
+          <t>87,0%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>86,13%</t>
+          <t>87,08%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>85,19%</t>
+          <t>87,04%</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>78,48; 88,65</t>
+          <t>81,53; 91,31</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>81,27; 90,46</t>
+          <t>82,49; 91,13</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>81,64; 88,49</t>
+          <t>83,54; 89,81</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/iP30A1_2023-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/iP30A1_2023-Habitat-trans_dic.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -611,12 +611,12 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>93,54%</t>
+          <t>94,73%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>91,73%</t>
+          <t>92,29%</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>79,73; 94,73</t>
+          <t>81,62; 95,09</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>88,79; 96,63</t>
+          <t>90,55; 97,66</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>87,34; 94,61</t>
+          <t>87,87; 95,25</t>
         </is>
       </c>
     </row>
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>92,54%</t>
+          <t>93,31%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>93,66%</t>
+          <t>94,74%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>93,03%</t>
+          <t>93,93%</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>89,02; 95,16</t>
+          <t>89,8; 95,7</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>90,03; 96,42</t>
+          <t>91,37; 97,0</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>90,44; 94,94</t>
+          <t>91,76; 95,75</t>
         </is>
       </c>
     </row>
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>84,27%</t>
+          <t>85,67%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>86,13%</t>
+          <t>86,87%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>85,19%</t>
+          <t>86,26%</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>78,48; 88,65</t>
+          <t>79,52; 90,19</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>81,27; 90,46</t>
+          <t>82,0; 90,94</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>81,64; 88,49</t>
+          <t>82,55; 89,42</t>
         </is>
       </c>
     </row>
@@ -756,17 +756,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>87,0%</t>
+          <t>88,96%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>87,08%</t>
+          <t>88,06%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>87,04%</t>
+          <t>88,51%</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>81,53; 91,31</t>
+          <t>84,03; 93,17</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>82,49; 91,13</t>
+          <t>83,31; 91,63</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>83,54; 89,81</t>
+          <t>84,95; 91,42</t>
         </is>
       </c>
     </row>
@@ -806,17 +806,17 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>88,94%</t>
+          <t>90,01%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>90,01%</t>
+          <t>90,97%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>89,45%</t>
+          <t>90,47%</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,24 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>86,45; 91,09</t>
+          <t>87,54; 92,17</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>87,78; 92,02</t>
+          <t>88,9; 92,73</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>87,91; 90,89</t>
+          <t>88,99; 91,84</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
